--- a/PROYECTO MR/PPS-MR-HU_GS.RS.14 Registrar Capacitación de personal-IPEN.xlsx
+++ b/PROYECTO MR/PPS-MR-HU_GS.RS.14 Registrar Capacitación de personal-IPEN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DOCUMENTACION\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B2D62-445B-4DBD-A0A1-D84754922436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C76AA4-8DB2-4024-9482-F9B9FE43F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="193">
   <si>
     <t>PLAN DE PRUEBAS DE SISTEMAS</t>
   </si>
@@ -1043,12 +1043,21 @@
   <si>
     <t>CP16</t>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1107,8 +1116,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,6 +1157,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1874,15 +1901,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1892,10 +1910,181 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,6 +2096,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1914,9 +2172,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1988,234 +2243,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17700,10 +17730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
-  <dimension ref="A3:CG89"/>
+  <dimension ref="A3:CK89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV41" sqref="AV41"/>
+    <sheetView tabSelected="1" topLeftCell="AO52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CO53" sqref="CO53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17730,302 +17760,305 @@
     <col min="58" max="67" width="10.7109375" customWidth="1"/>
     <col min="68" max="82" width="7.7109375" customWidth="1"/>
     <col min="83" max="85" width="5.140625" customWidth="1"/>
-    <col min="86" max="98" width="5.42578125" customWidth="1"/>
+    <col min="86" max="86" width="5.42578125" customWidth="1"/>
+    <col min="87" max="87" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15" bestFit="1" customWidth="1"/>
+    <col min="89" max="98" width="5.42578125" customWidth="1"/>
     <col min="99" max="107" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="162"/>
-      <c r="AN3" s="162"/>
-      <c r="AO3" s="162"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
       <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="162"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="162"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
       <c r="AP4" s="38"/>
     </row>
     <row r="5" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="163"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
       <c r="AP7" s="50"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="164" t="s">
+      <c r="G8" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="165"/>
-      <c r="I8" s="164" t="s">
+      <c r="H8" s="95"/>
+      <c r="I8" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="165"/>
-      <c r="K8" s="164" t="s">
+      <c r="J8" s="95"/>
+      <c r="K8" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="164" t="s">
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="166"/>
-      <c r="AH8" s="166"/>
-      <c r="AI8" s="166"/>
-      <c r="AJ8" s="166"/>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="166"/>
-      <c r="AO8" s="165"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="96"/>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="95"/>
       <c r="AP8" s="51"/>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="176">
+      <c r="G9" s="109">
         <v>45344</v>
       </c>
       <c r="H9" s="110"/>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="106" t="s">
+      <c r="J9" s="112"/>
+      <c r="K9" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="106" t="s">
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="115"/>
+      <c r="AF9" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="107"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="108"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="114"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="115"/>
       <c r="AP9" s="40"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="176">
+      <c r="G10" s="109">
         <v>45345</v>
       </c>
       <c r="H10" s="110"/>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106" t="s">
+      <c r="J10" s="112"/>
+      <c r="K10" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="106" t="s">
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="107"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="107"/>
-      <c r="AL10" s="107"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="107"/>
-      <c r="AO10" s="108"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="115"/>
       <c r="AP10" s="48"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="109"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="110"/>
-      <c r="I11" s="109"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
-      <c r="AJ11" s="112"/>
-      <c r="AK11" s="112"/>
-      <c r="AL11" s="112"/>
-      <c r="AM11" s="112"/>
-      <c r="AN11" s="112"/>
-      <c r="AO11" s="113"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="79"/>
       <c r="AP11" s="48"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18073,236 +18106,236 @@
     </row>
     <row r="15" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="119"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="145"/>
+      <c r="AM15" s="145"/>
+      <c r="AN15" s="145"/>
+      <c r="AO15" s="146"/>
       <c r="AP15" s="40"/>
     </row>
     <row r="16" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="167" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="168"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="168"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="168"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="168"/>
-      <c r="AH16" s="168"/>
-      <c r="AI16" s="168"/>
-      <c r="AJ16" s="168"/>
-      <c r="AK16" s="168"/>
-      <c r="AL16" s="168"/>
-      <c r="AM16" s="168"/>
-      <c r="AN16" s="168"/>
-      <c r="AO16" s="169"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="101"/>
+      <c r="AO16" s="102"/>
       <c r="AP16" s="40"/>
     </row>
     <row r="17" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="171"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="171"/>
-      <c r="Z17" s="171"/>
-      <c r="AA17" s="171"/>
-      <c r="AB17" s="171"/>
-      <c r="AC17" s="171"/>
-      <c r="AD17" s="171"/>
-      <c r="AE17" s="171"/>
-      <c r="AF17" s="171"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="171"/>
-      <c r="AI17" s="171"/>
-      <c r="AJ17" s="171"/>
-      <c r="AK17" s="171"/>
-      <c r="AL17" s="171"/>
-      <c r="AM17" s="171"/>
-      <c r="AN17" s="171"/>
-      <c r="AO17" s="172"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="105"/>
       <c r="AP17" s="40"/>
     </row>
     <row r="18" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="174"/>
-      <c r="AH18" s="174"/>
-      <c r="AI18" s="174"/>
-      <c r="AJ18" s="174"/>
-      <c r="AK18" s="174"/>
-      <c r="AL18" s="174"/>
-      <c r="AM18" s="174"/>
-      <c r="AN18" s="174"/>
-      <c r="AO18" s="175"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="108"/>
       <c r="AP18" s="48"/>
     </row>
     <row r="19" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="157"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="157"/>
-      <c r="AM19" s="157"/>
-      <c r="AN19" s="157"/>
-      <c r="AO19" s="158"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="88"/>
       <c r="AP19" s="48"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
@@ -18395,34 +18428,34 @@
       <c r="G22" s="30"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="159" t="s">
+      <c r="J22" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="161"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="91"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -18530,274 +18563,274 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="150" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="152"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="76"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="111" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="121"/>
-      <c r="AN28" s="121"/>
-      <c r="AO28" s="122"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="81"/>
+      <c r="AO28" s="82"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="121"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="121"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="121"/>
-      <c r="AN29" s="121"/>
-      <c r="AO29" s="122"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="82"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="122"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="82"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="121"/>
-      <c r="AO31" s="122"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="82"/>
     </row>
     <row r="32" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="127"/>
-      <c r="AN32" s="127"/>
-      <c r="AO32" s="128"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="120"/>
+      <c r="Y32" s="120"/>
+      <c r="Z32" s="120"/>
+      <c r="AA32" s="120"/>
+      <c r="AB32" s="120"/>
+      <c r="AC32" s="120"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="120"/>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="120"/>
+      <c r="AM32" s="120"/>
+      <c r="AN32" s="120"/>
+      <c r="AO32" s="121"/>
     </row>
-    <row r="33" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -18839,7 +18872,7 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
     </row>
-    <row r="34" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
@@ -18891,7 +18924,7 @@
       <c r="AL34" s="6"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -18933,7 +18966,7 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -18975,7 +19008,7 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
     </row>
-    <row r="37" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:88" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>32</v>
       </c>
@@ -19019,26 +19052,26 @@
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
     </row>
-    <row r="38" spans="1:85" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="71" t="s">
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="132" t="s">
+      <c r="I38" s="126"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="133"/>
-      <c r="M38" s="134"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="130"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -19068,27 +19101,27 @@
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
     </row>
-    <row r="39" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="138">
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="134">
         <v>0</v>
       </c>
-      <c r="I39" s="139"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="141" t="e">
+      <c r="I39" s="135"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="137" t="e">
         <f>ROUND((H39/H42)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="142"/>
-      <c r="M39" s="143"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="139"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -19118,27 +19151,27 @@
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
     </row>
-    <row r="40" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83">
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="159">
         <v>0</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="86" t="e">
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="162" t="e">
         <f>ROUND((H40/H42)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
+      <c r="L40" s="163"/>
+      <c r="M40" s="164"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -19168,27 +19201,27 @@
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
     </row>
-    <row r="41" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92">
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="168">
         <v>0</v>
       </c>
-      <c r="I41" s="93"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="95" t="e">
+      <c r="I41" s="169"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="171" t="e">
         <f>ROUND((H41/H42)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="96"/>
-      <c r="M41" s="97"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="173"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -19218,28 +19251,28 @@
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
     </row>
-    <row r="42" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="71">
+      <c r="C42" s="175"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="125">
         <f>SUM(H39:J41)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="74" t="e">
+      <c r="I42" s="126"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="151" t="e">
         <f>SUM(K39:M41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="75"/>
-      <c r="M42" s="76"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="153"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -19269,7 +19302,7 @@
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -19311,7 +19344,7 @@
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -19353,7 +19386,7 @@
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
     </row>
-    <row r="45" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:88" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>40</v>
       </c>
@@ -19397,123 +19430,132 @@
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
     </row>
-    <row r="46" spans="1:85" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="101" t="s">
+    <row r="46" spans="1:88" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="77" t="s">
+      <c r="C46" s="148"/>
+      <c r="D46" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="102"/>
-      <c r="F46" s="77" t="s">
+      <c r="E46" s="148"/>
+      <c r="F46" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="77"/>
-      <c r="H46" s="102" t="s">
+      <c r="G46" s="149"/>
+      <c r="H46" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="77" t="s">
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77" t="s">
+      <c r="L46" s="149"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77" t="s">
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="77"/>
-      <c r="S46" s="77" t="s">
+      <c r="R46" s="149"/>
+      <c r="S46" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="T46" s="77"/>
-      <c r="U46" s="77"/>
-      <c r="V46" s="77"/>
-      <c r="W46" s="77"/>
-      <c r="X46" s="77"/>
-      <c r="Y46" s="77" t="s">
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="149"/>
+      <c r="W46" s="149"/>
+      <c r="X46" s="149"/>
+      <c r="Y46" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="Z46" s="77"/>
-      <c r="AA46" s="77"/>
-      <c r="AB46" s="77"/>
-      <c r="AC46" s="77"/>
-      <c r="AD46" s="77"/>
-      <c r="AE46" s="77"/>
-      <c r="AF46" s="77"/>
-      <c r="AG46" s="77"/>
-      <c r="AH46" s="77"/>
-      <c r="AI46" s="77"/>
-      <c r="AJ46" s="77"/>
-      <c r="AK46" s="77"/>
-      <c r="AL46" s="77"/>
-      <c r="AM46" s="77"/>
-      <c r="AN46" s="77"/>
-      <c r="AO46" s="77"/>
+      <c r="Z46" s="149"/>
+      <c r="AA46" s="149"/>
+      <c r="AB46" s="149"/>
+      <c r="AC46" s="149"/>
+      <c r="AD46" s="149"/>
+      <c r="AE46" s="149"/>
+      <c r="AF46" s="149"/>
+      <c r="AG46" s="149"/>
+      <c r="AH46" s="149"/>
+      <c r="AI46" s="149"/>
+      <c r="AJ46" s="149"/>
+      <c r="AK46" s="149"/>
+      <c r="AL46" s="149"/>
+      <c r="AM46" s="149"/>
+      <c r="AN46" s="149"/>
+      <c r="AO46" s="149"/>
       <c r="AP46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AQ46" s="77" t="s">
+      <c r="AQ46" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="AR46" s="77"/>
-      <c r="AS46" s="77"/>
-      <c r="AT46" s="77"/>
-      <c r="AU46" s="77"/>
-      <c r="AV46" s="77"/>
-      <c r="AW46" s="77"/>
-      <c r="AX46" s="77"/>
-      <c r="AY46" s="77" t="s">
+      <c r="AR46" s="149"/>
+      <c r="AS46" s="149"/>
+      <c r="AT46" s="149"/>
+      <c r="AU46" s="149"/>
+      <c r="AV46" s="149"/>
+      <c r="AW46" s="149"/>
+      <c r="AX46" s="149"/>
+      <c r="AY46" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="AZ46" s="77"/>
-      <c r="BA46" s="77"/>
-      <c r="BB46" s="77"/>
-      <c r="BC46" s="77"/>
-      <c r="BD46" s="77"/>
-      <c r="BE46" s="77"/>
-      <c r="BF46" s="77" t="s">
+      <c r="AZ46" s="149"/>
+      <c r="BA46" s="149"/>
+      <c r="BB46" s="149"/>
+      <c r="BC46" s="149"/>
+      <c r="BD46" s="149"/>
+      <c r="BE46" s="149"/>
+      <c r="BF46" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="BG46" s="77"/>
-      <c r="BH46" s="77"/>
-      <c r="BI46" s="77"/>
-      <c r="BJ46" s="77"/>
-      <c r="BK46" s="77"/>
-      <c r="BL46" s="77"/>
-      <c r="BM46" s="77"/>
-      <c r="BN46" s="77"/>
-      <c r="BO46" s="77"/>
-      <c r="BP46" s="77" t="s">
+      <c r="BG46" s="149"/>
+      <c r="BH46" s="149"/>
+      <c r="BI46" s="149"/>
+      <c r="BJ46" s="149"/>
+      <c r="BK46" s="149"/>
+      <c r="BL46" s="149"/>
+      <c r="BM46" s="149"/>
+      <c r="BN46" s="149"/>
+      <c r="BO46" s="149"/>
+      <c r="BP46" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="BQ46" s="77"/>
-      <c r="BR46" s="77"/>
-      <c r="BS46" s="77"/>
-      <c r="BT46" s="77"/>
-      <c r="BU46" s="77"/>
-      <c r="BV46" s="77"/>
-      <c r="BW46" s="77"/>
-      <c r="BX46" s="77"/>
-      <c r="BY46" s="77"/>
-      <c r="BZ46" s="77"/>
-      <c r="CA46" s="77"/>
-      <c r="CB46" s="77"/>
-      <c r="CC46" s="77"/>
-      <c r="CD46" s="77"/>
-      <c r="CE46" s="77" t="s">
+      <c r="BQ46" s="149"/>
+      <c r="BR46" s="149"/>
+      <c r="BS46" s="149"/>
+      <c r="BT46" s="149"/>
+      <c r="BU46" s="149"/>
+      <c r="BV46" s="149"/>
+      <c r="BW46" s="149"/>
+      <c r="BX46" s="149"/>
+      <c r="BY46" s="149"/>
+      <c r="BZ46" s="149"/>
+      <c r="CA46" s="149"/>
+      <c r="CB46" s="149"/>
+      <c r="CC46" s="149"/>
+      <c r="CD46" s="149"/>
+      <c r="CE46" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="CF46" s="77"/>
-      <c r="CG46" s="103"/>
+      <c r="CF46" s="149"/>
+      <c r="CG46" s="150"/>
+      <c r="CH46" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI46" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ46" s="178" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="47" spans="1:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:88" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="53" t="s">
         <v>55</v>
       </c>
@@ -19587,7 +19629,7 @@
       <c r="AP47" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ47" s="66" t="s">
+      <c r="AQ47" s="63" t="s">
         <v>164</v>
       </c>
       <c r="AR47" s="58" t="s">
@@ -19620,46 +19662,55 @@
       <c r="BC47" s="58"/>
       <c r="BD47" s="58"/>
       <c r="BE47" s="59"/>
-      <c r="BF47" s="63" t="s">
+      <c r="BF47" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="BG47" s="64"/>
-      <c r="BH47" s="64"/>
-      <c r="BI47" s="64"/>
-      <c r="BJ47" s="64"/>
-      <c r="BK47" s="64"/>
-      <c r="BL47" s="64"/>
-      <c r="BM47" s="64"/>
-      <c r="BN47" s="64"/>
-      <c r="BO47" s="64"/>
-      <c r="BP47" s="63" t="s">
+      <c r="BG47" s="67"/>
+      <c r="BH47" s="67"/>
+      <c r="BI47" s="67"/>
+      <c r="BJ47" s="67"/>
+      <c r="BK47" s="67"/>
+      <c r="BL47" s="67"/>
+      <c r="BM47" s="67"/>
+      <c r="BN47" s="67"/>
+      <c r="BO47" s="67"/>
+      <c r="BP47" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="BQ47" s="64"/>
-      <c r="BR47" s="64"/>
-      <c r="BS47" s="64"/>
-      <c r="BT47" s="64"/>
-      <c r="BU47" s="64"/>
-      <c r="BV47" s="64"/>
-      <c r="BW47" s="64"/>
-      <c r="BX47" s="64"/>
-      <c r="BY47" s="64"/>
-      <c r="BZ47" s="64"/>
-      <c r="CA47" s="64"/>
-      <c r="CB47" s="64"/>
-      <c r="CC47" s="64"/>
-      <c r="CD47" s="64"/>
+      <c r="BQ47" s="67"/>
+      <c r="BR47" s="67"/>
+      <c r="BS47" s="67"/>
+      <c r="BT47" s="67"/>
+      <c r="BU47" s="67"/>
+      <c r="BV47" s="67"/>
+      <c r="BW47" s="67"/>
+      <c r="BX47" s="67"/>
+      <c r="BY47" s="67"/>
+      <c r="BZ47" s="67"/>
+      <c r="CA47" s="67"/>
+      <c r="CB47" s="67"/>
+      <c r="CC47" s="67"/>
+      <c r="CD47" s="67"/>
       <c r="CE47" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF47" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG47" s="65" t="s">
+      <c r="CG47" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH47">
+        <v>5</v>
+      </c>
+      <c r="CI47">
+        <v>6</v>
+      </c>
+      <c r="CJ47">
+        <v>9</v>
+      </c>
     </row>
-    <row r="48" spans="1:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:88" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="53" t="s">
         <v>60</v>
       </c>
@@ -19733,28 +19784,28 @@
       <c r="AP48" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ48" s="66" t="s">
+      <c r="AQ48" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR48" s="67" t="s">
+      <c r="AR48" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS48" s="67" t="s">
+      <c r="AS48" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT48" s="67" t="s">
+      <c r="AT48" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU48" s="67" t="s">
+      <c r="AU48" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV48" s="67" t="s">
+      <c r="AV48" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW48" s="67" t="s">
+      <c r="AW48" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX48" s="68" t="s">
+      <c r="AX48" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY48" s="57" t="s">
@@ -19766,46 +19817,55 @@
       <c r="BC48" s="58"/>
       <c r="BD48" s="58"/>
       <c r="BE48" s="59"/>
-      <c r="BF48" s="63" t="s">
+      <c r="BF48" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="BG48" s="64"/>
-      <c r="BH48" s="64"/>
-      <c r="BI48" s="64"/>
-      <c r="BJ48" s="64"/>
-      <c r="BK48" s="64"/>
-      <c r="BL48" s="64"/>
-      <c r="BM48" s="64"/>
-      <c r="BN48" s="64"/>
-      <c r="BO48" s="64"/>
-      <c r="BP48" s="63" t="s">
+      <c r="BG48" s="67"/>
+      <c r="BH48" s="67"/>
+      <c r="BI48" s="67"/>
+      <c r="BJ48" s="67"/>
+      <c r="BK48" s="67"/>
+      <c r="BL48" s="67"/>
+      <c r="BM48" s="67"/>
+      <c r="BN48" s="67"/>
+      <c r="BO48" s="67"/>
+      <c r="BP48" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="BQ48" s="64"/>
-      <c r="BR48" s="64"/>
-      <c r="BS48" s="64"/>
-      <c r="BT48" s="64"/>
-      <c r="BU48" s="64"/>
-      <c r="BV48" s="64"/>
-      <c r="BW48" s="64"/>
-      <c r="BX48" s="64"/>
-      <c r="BY48" s="64"/>
-      <c r="BZ48" s="64"/>
-      <c r="CA48" s="64"/>
-      <c r="CB48" s="64"/>
-      <c r="CC48" s="64"/>
-      <c r="CD48" s="64"/>
+      <c r="BQ48" s="67"/>
+      <c r="BR48" s="67"/>
+      <c r="BS48" s="67"/>
+      <c r="BT48" s="67"/>
+      <c r="BU48" s="67"/>
+      <c r="BV48" s="67"/>
+      <c r="BW48" s="67"/>
+      <c r="BX48" s="67"/>
+      <c r="BY48" s="67"/>
+      <c r="BZ48" s="67"/>
+      <c r="CA48" s="67"/>
+      <c r="CB48" s="67"/>
+      <c r="CC48" s="67"/>
+      <c r="CD48" s="67"/>
       <c r="CE48" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF48" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG48" s="65" t="s">
+      <c r="CG48" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH48">
+        <v>5</v>
+      </c>
+      <c r="CI48">
+        <v>6</v>
+      </c>
+      <c r="CJ48">
+        <v>9</v>
+      </c>
     </row>
-    <row r="49" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="53" t="s">
         <v>121</v>
       </c>
@@ -19879,28 +19939,28 @@
       <c r="AP49" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ49" s="66" t="s">
+      <c r="AQ49" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AR49" s="67" t="s">
+      <c r="AR49" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS49" s="67" t="s">
+      <c r="AS49" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT49" s="67" t="s">
+      <c r="AT49" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU49" s="67" t="s">
+      <c r="AU49" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV49" s="67" t="s">
+      <c r="AV49" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW49" s="67" t="s">
+      <c r="AW49" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX49" s="68" t="s">
+      <c r="AX49" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY49" s="57" t="s">
@@ -19912,46 +19972,55 @@
       <c r="BC49" s="58"/>
       <c r="BD49" s="58"/>
       <c r="BE49" s="59"/>
-      <c r="BF49" s="63" t="s">
+      <c r="BF49" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="BG49" s="64"/>
-      <c r="BH49" s="64"/>
-      <c r="BI49" s="64"/>
-      <c r="BJ49" s="64"/>
-      <c r="BK49" s="64"/>
-      <c r="BL49" s="64"/>
-      <c r="BM49" s="64"/>
-      <c r="BN49" s="64"/>
-      <c r="BO49" s="64"/>
-      <c r="BP49" s="63" t="s">
+      <c r="BG49" s="67"/>
+      <c r="BH49" s="67"/>
+      <c r="BI49" s="67"/>
+      <c r="BJ49" s="67"/>
+      <c r="BK49" s="67"/>
+      <c r="BL49" s="67"/>
+      <c r="BM49" s="67"/>
+      <c r="BN49" s="67"/>
+      <c r="BO49" s="67"/>
+      <c r="BP49" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="BQ49" s="64"/>
-      <c r="BR49" s="64"/>
-      <c r="BS49" s="64"/>
-      <c r="BT49" s="64"/>
-      <c r="BU49" s="64"/>
-      <c r="BV49" s="64"/>
-      <c r="BW49" s="64"/>
-      <c r="BX49" s="64"/>
-      <c r="BY49" s="64"/>
-      <c r="BZ49" s="64"/>
-      <c r="CA49" s="64"/>
-      <c r="CB49" s="64"/>
-      <c r="CC49" s="64"/>
-      <c r="CD49" s="64"/>
+      <c r="BQ49" s="67"/>
+      <c r="BR49" s="67"/>
+      <c r="BS49" s="67"/>
+      <c r="BT49" s="67"/>
+      <c r="BU49" s="67"/>
+      <c r="BV49" s="67"/>
+      <c r="BW49" s="67"/>
+      <c r="BX49" s="67"/>
+      <c r="BY49" s="67"/>
+      <c r="BZ49" s="67"/>
+      <c r="CA49" s="67"/>
+      <c r="CB49" s="67"/>
+      <c r="CC49" s="67"/>
+      <c r="CD49" s="67"/>
       <c r="CE49" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF49" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG49" s="65" t="s">
+      <c r="CG49" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH49">
+        <v>5</v>
+      </c>
+      <c r="CI49">
+        <v>6</v>
+      </c>
+      <c r="CJ49">
+        <v>9</v>
+      </c>
     </row>
-    <row r="50" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="53" t="s">
         <v>122</v>
       </c>
@@ -20025,28 +20094,28 @@
       <c r="AP50" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ50" s="66" t="s">
+      <c r="AQ50" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR50" s="67" t="s">
+      <c r="AR50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS50" s="67" t="s">
+      <c r="AS50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT50" s="67" t="s">
+      <c r="AT50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU50" s="67" t="s">
+      <c r="AU50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV50" s="67" t="s">
+      <c r="AV50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW50" s="67" t="s">
+      <c r="AW50" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX50" s="68" t="s">
+      <c r="AX50" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY50" s="57" t="s">
@@ -20058,46 +20127,55 @@
       <c r="BC50" s="58"/>
       <c r="BD50" s="58"/>
       <c r="BE50" s="59"/>
-      <c r="BF50" s="63" t="s">
+      <c r="BF50" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="BG50" s="64"/>
-      <c r="BH50" s="64"/>
-      <c r="BI50" s="64"/>
-      <c r="BJ50" s="64"/>
-      <c r="BK50" s="64"/>
-      <c r="BL50" s="64"/>
-      <c r="BM50" s="64"/>
-      <c r="BN50" s="64"/>
-      <c r="BO50" s="64"/>
-      <c r="BP50" s="63" t="s">
+      <c r="BG50" s="67"/>
+      <c r="BH50" s="67"/>
+      <c r="BI50" s="67"/>
+      <c r="BJ50" s="67"/>
+      <c r="BK50" s="67"/>
+      <c r="BL50" s="67"/>
+      <c r="BM50" s="67"/>
+      <c r="BN50" s="67"/>
+      <c r="BO50" s="67"/>
+      <c r="BP50" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="BQ50" s="64"/>
-      <c r="BR50" s="64"/>
-      <c r="BS50" s="64"/>
-      <c r="BT50" s="64"/>
-      <c r="BU50" s="64"/>
-      <c r="BV50" s="64"/>
-      <c r="BW50" s="64"/>
-      <c r="BX50" s="64"/>
-      <c r="BY50" s="64"/>
-      <c r="BZ50" s="64"/>
-      <c r="CA50" s="64"/>
-      <c r="CB50" s="64"/>
-      <c r="CC50" s="64"/>
-      <c r="CD50" s="64"/>
+      <c r="BQ50" s="67"/>
+      <c r="BR50" s="67"/>
+      <c r="BS50" s="67"/>
+      <c r="BT50" s="67"/>
+      <c r="BU50" s="67"/>
+      <c r="BV50" s="67"/>
+      <c r="BW50" s="67"/>
+      <c r="BX50" s="67"/>
+      <c r="BY50" s="67"/>
+      <c r="BZ50" s="67"/>
+      <c r="CA50" s="67"/>
+      <c r="CB50" s="67"/>
+      <c r="CC50" s="67"/>
+      <c r="CD50" s="67"/>
       <c r="CE50" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF50" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG50" s="65" t="s">
+      <c r="CG50" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH50">
+        <v>5</v>
+      </c>
+      <c r="CI50">
+        <v>6</v>
+      </c>
+      <c r="CJ50">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:89" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="53" t="s">
         <v>123</v>
       </c>
@@ -20171,28 +20249,28 @@
       <c r="AP51" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ51" s="66" t="s">
+      <c r="AQ51" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AR51" s="67" t="s">
+      <c r="AR51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS51" s="67" t="s">
+      <c r="AS51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT51" s="67" t="s">
+      <c r="AT51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU51" s="67" t="s">
+      <c r="AU51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV51" s="67" t="s">
+      <c r="AV51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW51" s="67" t="s">
+      <c r="AW51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX51" s="68" t="s">
+      <c r="AX51" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY51" s="57" t="s">
@@ -20204,46 +20282,55 @@
       <c r="BC51" s="58"/>
       <c r="BD51" s="58"/>
       <c r="BE51" s="59"/>
-      <c r="BF51" s="63" t="s">
+      <c r="BF51" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="BG51" s="64"/>
-      <c r="BH51" s="64"/>
-      <c r="BI51" s="64"/>
-      <c r="BJ51" s="64"/>
-      <c r="BK51" s="64"/>
-      <c r="BL51" s="64"/>
-      <c r="BM51" s="64"/>
-      <c r="BN51" s="64"/>
-      <c r="BO51" s="64"/>
-      <c r="BP51" s="63" t="s">
+      <c r="BG51" s="67"/>
+      <c r="BH51" s="67"/>
+      <c r="BI51" s="67"/>
+      <c r="BJ51" s="67"/>
+      <c r="BK51" s="67"/>
+      <c r="BL51" s="67"/>
+      <c r="BM51" s="67"/>
+      <c r="BN51" s="67"/>
+      <c r="BO51" s="67"/>
+      <c r="BP51" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="BQ51" s="64"/>
-      <c r="BR51" s="64"/>
-      <c r="BS51" s="64"/>
-      <c r="BT51" s="64"/>
-      <c r="BU51" s="64"/>
-      <c r="BV51" s="64"/>
-      <c r="BW51" s="64"/>
-      <c r="BX51" s="64"/>
-      <c r="BY51" s="64"/>
-      <c r="BZ51" s="64"/>
-      <c r="CA51" s="64"/>
-      <c r="CB51" s="64"/>
-      <c r="CC51" s="64"/>
-      <c r="CD51" s="64"/>
+      <c r="BQ51" s="67"/>
+      <c r="BR51" s="67"/>
+      <c r="BS51" s="67"/>
+      <c r="BT51" s="67"/>
+      <c r="BU51" s="67"/>
+      <c r="BV51" s="67"/>
+      <c r="BW51" s="67"/>
+      <c r="BX51" s="67"/>
+      <c r="BY51" s="67"/>
+      <c r="BZ51" s="67"/>
+      <c r="CA51" s="67"/>
+      <c r="CB51" s="67"/>
+      <c r="CC51" s="67"/>
+      <c r="CD51" s="67"/>
       <c r="CE51" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF51" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG51" s="65" t="s">
+      <c r="CG51" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH51">
+        <v>5</v>
+      </c>
+      <c r="CI51">
+        <v>6</v>
+      </c>
+      <c r="CJ51">
+        <v>9</v>
+      </c>
     </row>
-    <row r="52" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="53" t="s">
         <v>124</v>
       </c>
@@ -20317,28 +20404,28 @@
       <c r="AP52" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ52" s="66" t="s">
+      <c r="AQ52" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR52" s="67" t="s">
+      <c r="AR52" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS52" s="67" t="s">
+      <c r="AS52" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT52" s="67" t="s">
+      <c r="AT52" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU52" s="67" t="s">
+      <c r="AU52" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV52" s="67" t="s">
+      <c r="AV52" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW52" s="67" t="s">
+      <c r="AW52" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX52" s="68" t="s">
+      <c r="AX52" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY52" s="57" t="s">
@@ -20350,46 +20437,55 @@
       <c r="BC52" s="58"/>
       <c r="BD52" s="58"/>
       <c r="BE52" s="59"/>
-      <c r="BF52" s="63" t="s">
+      <c r="BF52" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="BG52" s="64"/>
-      <c r="BH52" s="64"/>
-      <c r="BI52" s="64"/>
-      <c r="BJ52" s="64"/>
-      <c r="BK52" s="64"/>
-      <c r="BL52" s="64"/>
-      <c r="BM52" s="64"/>
-      <c r="BN52" s="64"/>
-      <c r="BO52" s="64"/>
-      <c r="BP52" s="63" t="s">
+      <c r="BG52" s="67"/>
+      <c r="BH52" s="67"/>
+      <c r="BI52" s="67"/>
+      <c r="BJ52" s="67"/>
+      <c r="BK52" s="67"/>
+      <c r="BL52" s="67"/>
+      <c r="BM52" s="67"/>
+      <c r="BN52" s="67"/>
+      <c r="BO52" s="67"/>
+      <c r="BP52" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="BQ52" s="64"/>
-      <c r="BR52" s="64"/>
-      <c r="BS52" s="64"/>
-      <c r="BT52" s="64"/>
-      <c r="BU52" s="64"/>
-      <c r="BV52" s="64"/>
-      <c r="BW52" s="64"/>
-      <c r="BX52" s="64"/>
-      <c r="BY52" s="64"/>
-      <c r="BZ52" s="64"/>
-      <c r="CA52" s="64"/>
-      <c r="CB52" s="64"/>
-      <c r="CC52" s="64"/>
-      <c r="CD52" s="64"/>
+      <c r="BQ52" s="67"/>
+      <c r="BR52" s="67"/>
+      <c r="BS52" s="67"/>
+      <c r="BT52" s="67"/>
+      <c r="BU52" s="67"/>
+      <c r="BV52" s="67"/>
+      <c r="BW52" s="67"/>
+      <c r="BX52" s="67"/>
+      <c r="BY52" s="67"/>
+      <c r="BZ52" s="67"/>
+      <c r="CA52" s="67"/>
+      <c r="CB52" s="67"/>
+      <c r="CC52" s="67"/>
+      <c r="CD52" s="67"/>
       <c r="CE52" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG52" s="65" t="s">
+      <c r="CG52" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH52">
+        <v>5</v>
+      </c>
+      <c r="CI52">
+        <v>6</v>
+      </c>
+      <c r="CJ52">
+        <v>9</v>
+      </c>
     </row>
-    <row r="53" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="53" t="s">
         <v>125</v>
       </c>
@@ -20463,28 +20559,28 @@
       <c r="AP53" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ53" s="66" t="s">
+      <c r="AQ53" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="AR53" s="67" t="s">
+      <c r="AR53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS53" s="67" t="s">
+      <c r="AS53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT53" s="67" t="s">
+      <c r="AT53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU53" s="67" t="s">
+      <c r="AU53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV53" s="67" t="s">
+      <c r="AV53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW53" s="67" t="s">
+      <c r="AW53" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX53" s="68" t="s">
+      <c r="AX53" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY53" s="57" t="s">
@@ -20496,46 +20592,55 @@
       <c r="BC53" s="58"/>
       <c r="BD53" s="58"/>
       <c r="BE53" s="59"/>
-      <c r="BF53" s="63" t="s">
+      <c r="BF53" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="BG53" s="64"/>
-      <c r="BH53" s="64"/>
-      <c r="BI53" s="64"/>
-      <c r="BJ53" s="64"/>
-      <c r="BK53" s="64"/>
-      <c r="BL53" s="64"/>
-      <c r="BM53" s="64"/>
-      <c r="BN53" s="64"/>
-      <c r="BO53" s="64"/>
-      <c r="BP53" s="69" t="s">
+      <c r="BG53" s="67"/>
+      <c r="BH53" s="67"/>
+      <c r="BI53" s="67"/>
+      <c r="BJ53" s="67"/>
+      <c r="BK53" s="67"/>
+      <c r="BL53" s="67"/>
+      <c r="BM53" s="67"/>
+      <c r="BN53" s="67"/>
+      <c r="BO53" s="67"/>
+      <c r="BP53" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BQ53" s="70"/>
-      <c r="BR53" s="70"/>
-      <c r="BS53" s="70"/>
-      <c r="BT53" s="70"/>
-      <c r="BU53" s="70"/>
-      <c r="BV53" s="70"/>
-      <c r="BW53" s="70"/>
-      <c r="BX53" s="70"/>
-      <c r="BY53" s="70"/>
-      <c r="BZ53" s="70"/>
-      <c r="CA53" s="70"/>
-      <c r="CB53" s="70"/>
-      <c r="CC53" s="70"/>
-      <c r="CD53" s="70"/>
+      <c r="BQ53" s="69"/>
+      <c r="BR53" s="69"/>
+      <c r="BS53" s="69"/>
+      <c r="BT53" s="69"/>
+      <c r="BU53" s="69"/>
+      <c r="BV53" s="69"/>
+      <c r="BW53" s="69"/>
+      <c r="BX53" s="69"/>
+      <c r="BY53" s="69"/>
+      <c r="BZ53" s="69"/>
+      <c r="CA53" s="69"/>
+      <c r="CB53" s="69"/>
+      <c r="CC53" s="69"/>
+      <c r="CD53" s="69"/>
       <c r="CE53" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF53" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG53" s="65" t="s">
+      <c r="CG53" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH53">
+        <v>5</v>
+      </c>
+      <c r="CI53">
+        <v>5</v>
+      </c>
+      <c r="CJ53">
+        <v>5</v>
+      </c>
     </row>
-    <row r="54" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="53" t="s">
         <v>126</v>
       </c>
@@ -20609,28 +20714,28 @@
       <c r="AP54" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ54" s="66" t="s">
+      <c r="AQ54" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AR54" s="67" t="s">
+      <c r="AR54" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS54" s="67" t="s">
+      <c r="AS54" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT54" s="67" t="s">
+      <c r="AT54" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU54" s="67" t="s">
+      <c r="AU54" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV54" s="67" t="s">
+      <c r="AV54" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW54" s="67" t="s">
+      <c r="AW54" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX54" s="68" t="s">
+      <c r="AX54" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY54" s="57" t="s">
@@ -20642,46 +20747,55 @@
       <c r="BC54" s="58"/>
       <c r="BD54" s="58"/>
       <c r="BE54" s="59"/>
-      <c r="BF54" s="63" t="s">
+      <c r="BF54" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="BG54" s="64"/>
-      <c r="BH54" s="64"/>
-      <c r="BI54" s="64"/>
-      <c r="BJ54" s="64"/>
-      <c r="BK54" s="64"/>
-      <c r="BL54" s="64"/>
-      <c r="BM54" s="64"/>
-      <c r="BN54" s="64"/>
-      <c r="BO54" s="64"/>
-      <c r="BP54" s="63" t="s">
+      <c r="BG54" s="67"/>
+      <c r="BH54" s="67"/>
+      <c r="BI54" s="67"/>
+      <c r="BJ54" s="67"/>
+      <c r="BK54" s="67"/>
+      <c r="BL54" s="67"/>
+      <c r="BM54" s="67"/>
+      <c r="BN54" s="67"/>
+      <c r="BO54" s="67"/>
+      <c r="BP54" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="BQ54" s="64"/>
-      <c r="BR54" s="64"/>
-      <c r="BS54" s="64"/>
-      <c r="BT54" s="64"/>
-      <c r="BU54" s="64"/>
-      <c r="BV54" s="64"/>
-      <c r="BW54" s="64"/>
-      <c r="BX54" s="64"/>
-      <c r="BY54" s="64"/>
-      <c r="BZ54" s="64"/>
-      <c r="CA54" s="64"/>
-      <c r="CB54" s="64"/>
-      <c r="CC54" s="64"/>
-      <c r="CD54" s="64"/>
+      <c r="BQ54" s="67"/>
+      <c r="BR54" s="67"/>
+      <c r="BS54" s="67"/>
+      <c r="BT54" s="67"/>
+      <c r="BU54" s="67"/>
+      <c r="BV54" s="67"/>
+      <c r="BW54" s="67"/>
+      <c r="BX54" s="67"/>
+      <c r="BY54" s="67"/>
+      <c r="BZ54" s="67"/>
+      <c r="CA54" s="67"/>
+      <c r="CB54" s="67"/>
+      <c r="CC54" s="67"/>
+      <c r="CD54" s="67"/>
       <c r="CE54" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF54" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG54" s="65" t="s">
+      <c r="CG54" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH54">
+        <v>5</v>
+      </c>
+      <c r="CI54">
+        <v>9</v>
+      </c>
+      <c r="CJ54">
+        <v>12</v>
+      </c>
     </row>
-    <row r="55" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="53" t="s">
         <v>127</v>
       </c>
@@ -20755,28 +20869,28 @@
       <c r="AP55" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ55" s="66" t="s">
+      <c r="AQ55" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR55" s="67" t="s">
+      <c r="AR55" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS55" s="67" t="s">
+      <c r="AS55" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT55" s="67" t="s">
+      <c r="AT55" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU55" s="67" t="s">
+      <c r="AU55" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV55" s="67" t="s">
+      <c r="AV55" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW55" s="67" t="s">
+      <c r="AW55" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX55" s="68" t="s">
+      <c r="AX55" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY55" s="57" t="s">
@@ -20788,46 +20902,55 @@
       <c r="BC55" s="58"/>
       <c r="BD55" s="58"/>
       <c r="BE55" s="59"/>
-      <c r="BF55" s="63" t="s">
+      <c r="BF55" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="BG55" s="64"/>
-      <c r="BH55" s="64"/>
-      <c r="BI55" s="64"/>
-      <c r="BJ55" s="64"/>
-      <c r="BK55" s="64"/>
-      <c r="BL55" s="64"/>
-      <c r="BM55" s="64"/>
-      <c r="BN55" s="64"/>
-      <c r="BO55" s="64"/>
-      <c r="BP55" s="63" t="s">
+      <c r="BG55" s="67"/>
+      <c r="BH55" s="67"/>
+      <c r="BI55" s="67"/>
+      <c r="BJ55" s="67"/>
+      <c r="BK55" s="67"/>
+      <c r="BL55" s="67"/>
+      <c r="BM55" s="67"/>
+      <c r="BN55" s="67"/>
+      <c r="BO55" s="67"/>
+      <c r="BP55" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="BQ55" s="64"/>
-      <c r="BR55" s="64"/>
-      <c r="BS55" s="64"/>
-      <c r="BT55" s="64"/>
-      <c r="BU55" s="64"/>
-      <c r="BV55" s="64"/>
-      <c r="BW55" s="64"/>
-      <c r="BX55" s="64"/>
-      <c r="BY55" s="64"/>
-      <c r="BZ55" s="64"/>
-      <c r="CA55" s="64"/>
-      <c r="CB55" s="64"/>
-      <c r="CC55" s="64"/>
-      <c r="CD55" s="64"/>
+      <c r="BQ55" s="67"/>
+      <c r="BR55" s="67"/>
+      <c r="BS55" s="67"/>
+      <c r="BT55" s="67"/>
+      <c r="BU55" s="67"/>
+      <c r="BV55" s="67"/>
+      <c r="BW55" s="67"/>
+      <c r="BX55" s="67"/>
+      <c r="BY55" s="67"/>
+      <c r="BZ55" s="67"/>
+      <c r="CA55" s="67"/>
+      <c r="CB55" s="67"/>
+      <c r="CC55" s="67"/>
+      <c r="CD55" s="67"/>
       <c r="CE55" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF55" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG55" s="65" t="s">
+      <c r="CG55" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH55">
+        <v>5</v>
+      </c>
+      <c r="CI55">
+        <v>9</v>
+      </c>
+      <c r="CJ55">
+        <v>12</v>
+      </c>
     </row>
-    <row r="56" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="53" t="s">
         <v>128</v>
       </c>
@@ -20901,28 +21024,28 @@
       <c r="AP56" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ56" s="66" t="s">
+      <c r="AQ56" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="AR56" s="67" t="s">
+      <c r="AR56" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS56" s="67" t="s">
+      <c r="AS56" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT56" s="67" t="s">
+      <c r="AT56" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU56" s="67" t="s">
+      <c r="AU56" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV56" s="67" t="s">
+      <c r="AV56" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW56" s="67" t="s">
+      <c r="AW56" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX56" s="68" t="s">
+      <c r="AX56" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY56" s="57" t="s">
@@ -20934,46 +21057,55 @@
       <c r="BC56" s="58"/>
       <c r="BD56" s="58"/>
       <c r="BE56" s="59"/>
-      <c r="BF56" s="63" t="s">
+      <c r="BF56" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="BG56" s="64"/>
-      <c r="BH56" s="64"/>
-      <c r="BI56" s="64"/>
-      <c r="BJ56" s="64"/>
-      <c r="BK56" s="64"/>
-      <c r="BL56" s="64"/>
-      <c r="BM56" s="64"/>
-      <c r="BN56" s="64"/>
-      <c r="BO56" s="64"/>
-      <c r="BP56" s="69" t="s">
+      <c r="BG56" s="67"/>
+      <c r="BH56" s="67"/>
+      <c r="BI56" s="67"/>
+      <c r="BJ56" s="67"/>
+      <c r="BK56" s="67"/>
+      <c r="BL56" s="67"/>
+      <c r="BM56" s="67"/>
+      <c r="BN56" s="67"/>
+      <c r="BO56" s="67"/>
+      <c r="BP56" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="BQ56" s="70"/>
-      <c r="BR56" s="70"/>
-      <c r="BS56" s="70"/>
-      <c r="BT56" s="70"/>
-      <c r="BU56" s="70"/>
-      <c r="BV56" s="70"/>
-      <c r="BW56" s="70"/>
-      <c r="BX56" s="70"/>
-      <c r="BY56" s="70"/>
-      <c r="BZ56" s="70"/>
-      <c r="CA56" s="70"/>
-      <c r="CB56" s="70"/>
-      <c r="CC56" s="70"/>
-      <c r="CD56" s="70"/>
+      <c r="BQ56" s="69"/>
+      <c r="BR56" s="69"/>
+      <c r="BS56" s="69"/>
+      <c r="BT56" s="69"/>
+      <c r="BU56" s="69"/>
+      <c r="BV56" s="69"/>
+      <c r="BW56" s="69"/>
+      <c r="BX56" s="69"/>
+      <c r="BY56" s="69"/>
+      <c r="BZ56" s="69"/>
+      <c r="CA56" s="69"/>
+      <c r="CB56" s="69"/>
+      <c r="CC56" s="69"/>
+      <c r="CD56" s="69"/>
       <c r="CE56" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF56" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG56" s="65" t="s">
+      <c r="CG56" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH56">
+        <v>5</v>
+      </c>
+      <c r="CI56">
+        <v>5</v>
+      </c>
+      <c r="CJ56">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="53" t="s">
         <v>129</v>
       </c>
@@ -21047,28 +21179,28 @@
       <c r="AP57" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ57" s="66" t="s">
+      <c r="AQ57" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AR57" s="67" t="s">
+      <c r="AR57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS57" s="67" t="s">
+      <c r="AS57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT57" s="67" t="s">
+      <c r="AT57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU57" s="67" t="s">
+      <c r="AU57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV57" s="67" t="s">
+      <c r="AV57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW57" s="67" t="s">
+      <c r="AW57" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX57" s="68" t="s">
+      <c r="AX57" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY57" s="57" t="s">
@@ -21080,46 +21212,55 @@
       <c r="BC57" s="58"/>
       <c r="BD57" s="58"/>
       <c r="BE57" s="59"/>
-      <c r="BF57" s="63" t="s">
+      <c r="BF57" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="BG57" s="64"/>
-      <c r="BH57" s="64"/>
-      <c r="BI57" s="64"/>
-      <c r="BJ57" s="64"/>
-      <c r="BK57" s="64"/>
-      <c r="BL57" s="64"/>
-      <c r="BM57" s="64"/>
-      <c r="BN57" s="64"/>
-      <c r="BO57" s="64"/>
-      <c r="BP57" s="63" t="s">
+      <c r="BG57" s="67"/>
+      <c r="BH57" s="67"/>
+      <c r="BI57" s="67"/>
+      <c r="BJ57" s="67"/>
+      <c r="BK57" s="67"/>
+      <c r="BL57" s="67"/>
+      <c r="BM57" s="67"/>
+      <c r="BN57" s="67"/>
+      <c r="BO57" s="67"/>
+      <c r="BP57" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="BQ57" s="64"/>
-      <c r="BR57" s="64"/>
-      <c r="BS57" s="64"/>
-      <c r="BT57" s="64"/>
-      <c r="BU57" s="64"/>
-      <c r="BV57" s="64"/>
-      <c r="BW57" s="64"/>
-      <c r="BX57" s="64"/>
-      <c r="BY57" s="64"/>
-      <c r="BZ57" s="64"/>
-      <c r="CA57" s="64"/>
-      <c r="CB57" s="64"/>
-      <c r="CC57" s="64"/>
-      <c r="CD57" s="64"/>
+      <c r="BQ57" s="67"/>
+      <c r="BR57" s="67"/>
+      <c r="BS57" s="67"/>
+      <c r="BT57" s="67"/>
+      <c r="BU57" s="67"/>
+      <c r="BV57" s="67"/>
+      <c r="BW57" s="67"/>
+      <c r="BX57" s="67"/>
+      <c r="BY57" s="67"/>
+      <c r="BZ57" s="67"/>
+      <c r="CA57" s="67"/>
+      <c r="CB57" s="67"/>
+      <c r="CC57" s="67"/>
+      <c r="CD57" s="67"/>
       <c r="CE57" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF57" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG57" s="65" t="s">
+      <c r="CG57" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH57">
+        <v>5</v>
+      </c>
+      <c r="CI57">
+        <v>8</v>
+      </c>
+      <c r="CJ57">
+        <v>10</v>
+      </c>
     </row>
-    <row r="58" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="53" t="s">
         <v>130</v>
       </c>
@@ -21193,28 +21334,28 @@
       <c r="AP58" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ58" s="66" t="s">
+      <c r="AQ58" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR58" s="67" t="s">
+      <c r="AR58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS58" s="67" t="s">
+      <c r="AS58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT58" s="67" t="s">
+      <c r="AT58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU58" s="67" t="s">
+      <c r="AU58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV58" s="67" t="s">
+      <c r="AV58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW58" s="67" t="s">
+      <c r="AW58" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX58" s="68" t="s">
+      <c r="AX58" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY58" s="57" t="s">
@@ -21226,46 +21367,55 @@
       <c r="BC58" s="58"/>
       <c r="BD58" s="58"/>
       <c r="BE58" s="59"/>
-      <c r="BF58" s="63" t="s">
+      <c r="BF58" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="BG58" s="64"/>
-      <c r="BH58" s="64"/>
-      <c r="BI58" s="64"/>
-      <c r="BJ58" s="64"/>
-      <c r="BK58" s="64"/>
-      <c r="BL58" s="64"/>
-      <c r="BM58" s="64"/>
-      <c r="BN58" s="64"/>
-      <c r="BO58" s="64"/>
-      <c r="BP58" s="63" t="s">
+      <c r="BG58" s="67"/>
+      <c r="BH58" s="67"/>
+      <c r="BI58" s="67"/>
+      <c r="BJ58" s="67"/>
+      <c r="BK58" s="67"/>
+      <c r="BL58" s="67"/>
+      <c r="BM58" s="67"/>
+      <c r="BN58" s="67"/>
+      <c r="BO58" s="67"/>
+      <c r="BP58" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="BQ58" s="64"/>
-      <c r="BR58" s="64"/>
-      <c r="BS58" s="64"/>
-      <c r="BT58" s="64"/>
-      <c r="BU58" s="64"/>
-      <c r="BV58" s="64"/>
-      <c r="BW58" s="64"/>
-      <c r="BX58" s="64"/>
-      <c r="BY58" s="64"/>
-      <c r="BZ58" s="64"/>
-      <c r="CA58" s="64"/>
-      <c r="CB58" s="64"/>
-      <c r="CC58" s="64"/>
-      <c r="CD58" s="64"/>
+      <c r="BQ58" s="67"/>
+      <c r="BR58" s="67"/>
+      <c r="BS58" s="67"/>
+      <c r="BT58" s="67"/>
+      <c r="BU58" s="67"/>
+      <c r="BV58" s="67"/>
+      <c r="BW58" s="67"/>
+      <c r="BX58" s="67"/>
+      <c r="BY58" s="67"/>
+      <c r="BZ58" s="67"/>
+      <c r="CA58" s="67"/>
+      <c r="CB58" s="67"/>
+      <c r="CC58" s="67"/>
+      <c r="CD58" s="67"/>
       <c r="CE58" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF58" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG58" s="65" t="s">
+      <c r="CG58" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH58">
+        <v>5</v>
+      </c>
+      <c r="CI58">
+        <v>8</v>
+      </c>
+      <c r="CJ58">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="53" t="s">
         <v>188</v>
       </c>
@@ -21339,28 +21489,28 @@
       <c r="AP59" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ59" s="66" t="s">
+      <c r="AQ59" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AR59" s="67" t="s">
+      <c r="AR59" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS59" s="67" t="s">
+      <c r="AS59" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT59" s="67" t="s">
+      <c r="AT59" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU59" s="67" t="s">
+      <c r="AU59" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV59" s="67" t="s">
+      <c r="AV59" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW59" s="67" t="s">
+      <c r="AW59" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX59" s="68" t="s">
+      <c r="AX59" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY59" s="57" t="s">
@@ -21372,46 +21522,55 @@
       <c r="BC59" s="58"/>
       <c r="BD59" s="58"/>
       <c r="BE59" s="59"/>
-      <c r="BF59" s="63" t="s">
+      <c r="BF59" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="BG59" s="64"/>
-      <c r="BH59" s="64"/>
-      <c r="BI59" s="64"/>
-      <c r="BJ59" s="64"/>
-      <c r="BK59" s="64"/>
-      <c r="BL59" s="64"/>
-      <c r="BM59" s="64"/>
-      <c r="BN59" s="64"/>
-      <c r="BO59" s="64"/>
-      <c r="BP59" s="63" t="s">
+      <c r="BG59" s="67"/>
+      <c r="BH59" s="67"/>
+      <c r="BI59" s="67"/>
+      <c r="BJ59" s="67"/>
+      <c r="BK59" s="67"/>
+      <c r="BL59" s="67"/>
+      <c r="BM59" s="67"/>
+      <c r="BN59" s="67"/>
+      <c r="BO59" s="67"/>
+      <c r="BP59" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="BQ59" s="64"/>
-      <c r="BR59" s="64"/>
-      <c r="BS59" s="64"/>
-      <c r="BT59" s="64"/>
-      <c r="BU59" s="64"/>
-      <c r="BV59" s="64"/>
-      <c r="BW59" s="64"/>
-      <c r="BX59" s="64"/>
-      <c r="BY59" s="64"/>
-      <c r="BZ59" s="64"/>
-      <c r="CA59" s="64"/>
-      <c r="CB59" s="64"/>
-      <c r="CC59" s="64"/>
-      <c r="CD59" s="64"/>
+      <c r="BQ59" s="67"/>
+      <c r="BR59" s="67"/>
+      <c r="BS59" s="67"/>
+      <c r="BT59" s="67"/>
+      <c r="BU59" s="67"/>
+      <c r="BV59" s="67"/>
+      <c r="BW59" s="67"/>
+      <c r="BX59" s="67"/>
+      <c r="BY59" s="67"/>
+      <c r="BZ59" s="67"/>
+      <c r="CA59" s="67"/>
+      <c r="CB59" s="67"/>
+      <c r="CC59" s="67"/>
+      <c r="CD59" s="67"/>
       <c r="CE59" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF59" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG59" s="65" t="s">
+      <c r="CG59" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH59">
+        <v>5</v>
+      </c>
+      <c r="CI59">
+        <v>8</v>
+      </c>
+      <c r="CJ59">
+        <v>10</v>
+      </c>
     </row>
-    <row r="60" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="53" t="s">
         <v>140</v>
       </c>
@@ -21485,28 +21644,28 @@
       <c r="AP60" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ60" s="66" t="s">
+      <c r="AQ60" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR60" s="67" t="s">
+      <c r="AR60" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS60" s="67" t="s">
+      <c r="AS60" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT60" s="67" t="s">
+      <c r="AT60" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU60" s="67" t="s">
+      <c r="AU60" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV60" s="67" t="s">
+      <c r="AV60" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW60" s="67" t="s">
+      <c r="AW60" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX60" s="68" t="s">
+      <c r="AX60" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY60" s="57" t="s">
@@ -21518,46 +21677,55 @@
       <c r="BC60" s="58"/>
       <c r="BD60" s="58"/>
       <c r="BE60" s="59"/>
-      <c r="BF60" s="63" t="s">
+      <c r="BF60" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="BG60" s="64"/>
-      <c r="BH60" s="64"/>
-      <c r="BI60" s="64"/>
-      <c r="BJ60" s="64"/>
-      <c r="BK60" s="64"/>
-      <c r="BL60" s="64"/>
-      <c r="BM60" s="64"/>
-      <c r="BN60" s="64"/>
-      <c r="BO60" s="64"/>
-      <c r="BP60" s="63" t="s">
+      <c r="BG60" s="67"/>
+      <c r="BH60" s="67"/>
+      <c r="BI60" s="67"/>
+      <c r="BJ60" s="67"/>
+      <c r="BK60" s="67"/>
+      <c r="BL60" s="67"/>
+      <c r="BM60" s="67"/>
+      <c r="BN60" s="67"/>
+      <c r="BO60" s="67"/>
+      <c r="BP60" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="BQ60" s="64"/>
-      <c r="BR60" s="64"/>
-      <c r="BS60" s="64"/>
-      <c r="BT60" s="64"/>
-      <c r="BU60" s="64"/>
-      <c r="BV60" s="64"/>
-      <c r="BW60" s="64"/>
-      <c r="BX60" s="64"/>
-      <c r="BY60" s="64"/>
-      <c r="BZ60" s="64"/>
-      <c r="CA60" s="64"/>
-      <c r="CB60" s="64"/>
-      <c r="CC60" s="64"/>
-      <c r="CD60" s="64"/>
+      <c r="BQ60" s="67"/>
+      <c r="BR60" s="67"/>
+      <c r="BS60" s="67"/>
+      <c r="BT60" s="67"/>
+      <c r="BU60" s="67"/>
+      <c r="BV60" s="67"/>
+      <c r="BW60" s="67"/>
+      <c r="BX60" s="67"/>
+      <c r="BY60" s="67"/>
+      <c r="BZ60" s="67"/>
+      <c r="CA60" s="67"/>
+      <c r="CB60" s="67"/>
+      <c r="CC60" s="67"/>
+      <c r="CD60" s="67"/>
       <c r="CE60" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF60" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG60" s="65" t="s">
+      <c r="CG60" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH60">
+        <v>5</v>
+      </c>
+      <c r="CI60">
+        <v>8</v>
+      </c>
+      <c r="CJ60">
+        <v>10</v>
+      </c>
     </row>
-    <row r="61" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="53" t="s">
         <v>141</v>
       </c>
@@ -21631,28 +21799,28 @@
       <c r="AP61" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ61" s="66" t="s">
+      <c r="AQ61" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AR61" s="67" t="s">
+      <c r="AR61" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS61" s="67" t="s">
+      <c r="AS61" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT61" s="67" t="s">
+      <c r="AT61" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU61" s="67" t="s">
+      <c r="AU61" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV61" s="67" t="s">
+      <c r="AV61" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW61" s="67" t="s">
+      <c r="AW61" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX61" s="68" t="s">
+      <c r="AX61" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY61" s="57" t="s">
@@ -21664,46 +21832,55 @@
       <c r="BC61" s="58"/>
       <c r="BD61" s="58"/>
       <c r="BE61" s="59"/>
-      <c r="BF61" s="63" t="s">
+      <c r="BF61" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="BG61" s="64"/>
-      <c r="BH61" s="64"/>
-      <c r="BI61" s="64"/>
-      <c r="BJ61" s="64"/>
-      <c r="BK61" s="64"/>
-      <c r="BL61" s="64"/>
-      <c r="BM61" s="64"/>
-      <c r="BN61" s="64"/>
-      <c r="BO61" s="64"/>
-      <c r="BP61" s="63" t="s">
+      <c r="BG61" s="67"/>
+      <c r="BH61" s="67"/>
+      <c r="BI61" s="67"/>
+      <c r="BJ61" s="67"/>
+      <c r="BK61" s="67"/>
+      <c r="BL61" s="67"/>
+      <c r="BM61" s="67"/>
+      <c r="BN61" s="67"/>
+      <c r="BO61" s="67"/>
+      <c r="BP61" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="BQ61" s="64"/>
-      <c r="BR61" s="64"/>
-      <c r="BS61" s="64"/>
-      <c r="BT61" s="64"/>
-      <c r="BU61" s="64"/>
-      <c r="BV61" s="64"/>
-      <c r="BW61" s="64"/>
-      <c r="BX61" s="64"/>
-      <c r="BY61" s="64"/>
-      <c r="BZ61" s="64"/>
-      <c r="CA61" s="64"/>
-      <c r="CB61" s="64"/>
-      <c r="CC61" s="64"/>
-      <c r="CD61" s="64"/>
+      <c r="BQ61" s="67"/>
+      <c r="BR61" s="67"/>
+      <c r="BS61" s="67"/>
+      <c r="BT61" s="67"/>
+      <c r="BU61" s="67"/>
+      <c r="BV61" s="67"/>
+      <c r="BW61" s="67"/>
+      <c r="BX61" s="67"/>
+      <c r="BY61" s="67"/>
+      <c r="BZ61" s="67"/>
+      <c r="CA61" s="67"/>
+      <c r="CB61" s="67"/>
+      <c r="CC61" s="67"/>
+      <c r="CD61" s="67"/>
       <c r="CE61" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF61" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG61" s="65" t="s">
+      <c r="CG61" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH61">
+        <v>5</v>
+      </c>
+      <c r="CI61">
+        <v>8</v>
+      </c>
+      <c r="CJ61">
+        <v>10</v>
+      </c>
     </row>
-    <row r="62" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="53" t="s">
         <v>189</v>
       </c>
@@ -21777,28 +21954,28 @@
       <c r="AP62" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AQ62" s="66" t="s">
+      <c r="AQ62" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="AR62" s="67" t="s">
+      <c r="AR62" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AS62" s="67" t="s">
+      <c r="AS62" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AT62" s="67" t="s">
+      <c r="AT62" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AU62" s="67" t="s">
+      <c r="AU62" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AV62" s="67" t="s">
+      <c r="AV62" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AW62" s="67" t="s">
+      <c r="AW62" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AX62" s="68" t="s">
+      <c r="AX62" s="65" t="s">
         <v>131</v>
       </c>
       <c r="AY62" s="57" t="s">
@@ -21810,46 +21987,55 @@
       <c r="BC62" s="58"/>
       <c r="BD62" s="58"/>
       <c r="BE62" s="59"/>
-      <c r="BF62" s="63" t="s">
+      <c r="BF62" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="BG62" s="64"/>
-      <c r="BH62" s="64"/>
-      <c r="BI62" s="64"/>
-      <c r="BJ62" s="64"/>
-      <c r="BK62" s="64"/>
-      <c r="BL62" s="64"/>
-      <c r="BM62" s="64"/>
-      <c r="BN62" s="64"/>
-      <c r="BO62" s="64"/>
-      <c r="BP62" s="63" t="s">
+      <c r="BG62" s="67"/>
+      <c r="BH62" s="67"/>
+      <c r="BI62" s="67"/>
+      <c r="BJ62" s="67"/>
+      <c r="BK62" s="67"/>
+      <c r="BL62" s="67"/>
+      <c r="BM62" s="67"/>
+      <c r="BN62" s="67"/>
+      <c r="BO62" s="67"/>
+      <c r="BP62" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="BQ62" s="64"/>
-      <c r="BR62" s="64"/>
-      <c r="BS62" s="64"/>
-      <c r="BT62" s="64"/>
-      <c r="BU62" s="64"/>
-      <c r="BV62" s="64"/>
-      <c r="BW62" s="64"/>
-      <c r="BX62" s="64"/>
-      <c r="BY62" s="64"/>
-      <c r="BZ62" s="64"/>
-      <c r="CA62" s="64"/>
-      <c r="CB62" s="64"/>
-      <c r="CC62" s="64"/>
-      <c r="CD62" s="64"/>
+      <c r="BQ62" s="67"/>
+      <c r="BR62" s="67"/>
+      <c r="BS62" s="67"/>
+      <c r="BT62" s="67"/>
+      <c r="BU62" s="67"/>
+      <c r="BV62" s="67"/>
+      <c r="BW62" s="67"/>
+      <c r="BX62" s="67"/>
+      <c r="BY62" s="67"/>
+      <c r="BZ62" s="67"/>
+      <c r="CA62" s="67"/>
+      <c r="CB62" s="67"/>
+      <c r="CC62" s="67"/>
+      <c r="CD62" s="67"/>
       <c r="CE62" s="56" t="s">
         <v>59</v>
       </c>
       <c r="CF62" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="CG62" s="65" t="s">
+      <c r="CG62" s="70" t="s">
         <v>59</v>
       </c>
+      <c r="CH62">
+        <v>5</v>
+      </c>
+      <c r="CI62">
+        <v>8</v>
+      </c>
+      <c r="CJ62">
+        <v>10</v>
+      </c>
     </row>
-    <row r="63" spans="2:85" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:89" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
       <c r="D63" s="22"/>
@@ -21934,6 +22120,36 @@
       <c r="CE63" s="26"/>
       <c r="CF63" s="22"/>
       <c r="CG63" s="22"/>
+      <c r="CH63">
+        <f>SUM(CH47:CH62)</f>
+        <v>80</v>
+      </c>
+      <c r="CI63">
+        <f t="shared" ref="CI63:CJ63" si="0">SUM(CI47:CI62)</f>
+        <v>112</v>
+      </c>
+      <c r="CJ63">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="CH64">
+        <f>CH63/60</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="CI64">
+        <f t="shared" ref="CI64:CJ64" si="1">CI63/60</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="CJ64">
+        <f t="shared" si="1"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="CK64" s="179">
+        <f>CH64+CI64+CJ64</f>
+        <v>5.666666666666667</v>
+      </c>
     </row>
     <row r="65" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
@@ -22684,21 +22900,21 @@
       <c r="AO85" s="5"/>
     </row>
     <row r="86" spans="2:42" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="78"/>
-      <c r="M86" s="78"/>
-      <c r="N86" s="78"/>
-      <c r="O86" s="78"/>
-      <c r="P86" s="78"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154"/>
+      <c r="J86" s="154"/>
+      <c r="K86" s="154"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="154"/>
+      <c r="N86" s="154"/>
+      <c r="O86" s="154"/>
+      <c r="P86" s="154"/>
       <c r="Z86" s="10" t="s">
         <v>26</v>
       </c>
@@ -22730,18 +22946,18 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="79"/>
-      <c r="I88" s="79"/>
-      <c r="J88" s="79"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
-      <c r="O88" s="79"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+      <c r="K88" s="155"/>
+      <c r="L88" s="155"/>
+      <c r="M88" s="155"/>
+      <c r="N88" s="155"/>
+      <c r="O88" s="155"/>
+      <c r="P88" s="155"/>
+      <c r="Q88" s="155"/>
       <c r="AK88" t="s">
         <v>90</v>
       </c>
@@ -22789,114 +23005,155 @@
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:X58"/>
-    <mergeCell ref="Y58:AO58"/>
-    <mergeCell ref="AQ56:AX56"/>
-    <mergeCell ref="AY56:BE56"/>
-    <mergeCell ref="BF56:BO56"/>
-    <mergeCell ref="BP56:CD56"/>
-    <mergeCell ref="CE56:CG56"/>
-    <mergeCell ref="AQ57:AX57"/>
-    <mergeCell ref="AY57:BE57"/>
-    <mergeCell ref="BF57:BO57"/>
-    <mergeCell ref="BP57:CD57"/>
-    <mergeCell ref="CE57:CG57"/>
-    <mergeCell ref="AQ58:AX58"/>
-    <mergeCell ref="AY58:BE58"/>
-    <mergeCell ref="BF58:BO58"/>
-    <mergeCell ref="BP58:CD58"/>
-    <mergeCell ref="CE58:CG58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="Y57:AO57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:X56"/>
-    <mergeCell ref="Y56:AO56"/>
-    <mergeCell ref="AQ55:AX55"/>
-    <mergeCell ref="AY55:BE55"/>
-    <mergeCell ref="BF55:BO55"/>
-    <mergeCell ref="BP55:CD55"/>
-    <mergeCell ref="CE55:CG55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="Y55:AO55"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:X54"/>
-    <mergeCell ref="Y54:AO54"/>
-    <mergeCell ref="AQ50:AX50"/>
-    <mergeCell ref="AY50:BE50"/>
-    <mergeCell ref="BF50:BO50"/>
-    <mergeCell ref="BP50:CD50"/>
-    <mergeCell ref="CE50:CG50"/>
-    <mergeCell ref="AQ51:AX51"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="AQ54:AX54"/>
-    <mergeCell ref="AY54:BE54"/>
-    <mergeCell ref="BF54:BO54"/>
-    <mergeCell ref="BP54:CD54"/>
-    <mergeCell ref="CE54:CG54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y50:AO50"/>
-    <mergeCell ref="Y48:AO48"/>
-    <mergeCell ref="AQ48:AX48"/>
-    <mergeCell ref="AY48:BE48"/>
-    <mergeCell ref="BF48:BO48"/>
-    <mergeCell ref="BP48:CD48"/>
-    <mergeCell ref="CE48:CG48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="Y49:AO49"/>
-    <mergeCell ref="AQ49:AX49"/>
-    <mergeCell ref="AY49:BE49"/>
-    <mergeCell ref="BF49:BO49"/>
-    <mergeCell ref="BP49:CD49"/>
-    <mergeCell ref="CE49:CG49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="BF60:BO60"/>
+    <mergeCell ref="BP60:CD60"/>
+    <mergeCell ref="CE60:CG60"/>
+    <mergeCell ref="BP59:CD59"/>
+    <mergeCell ref="CE59:CG59"/>
+    <mergeCell ref="AQ53:AX53"/>
+    <mergeCell ref="AY53:BE53"/>
+    <mergeCell ref="BF53:BO53"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:X60"/>
+    <mergeCell ref="Y60:AO60"/>
+    <mergeCell ref="AQ60:AX60"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:X59"/>
+    <mergeCell ref="Y59:AO59"/>
+    <mergeCell ref="AY60:BE60"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AO53"/>
+    <mergeCell ref="AQ59:AX59"/>
+    <mergeCell ref="AY59:BE59"/>
+    <mergeCell ref="BF59:BO59"/>
+    <mergeCell ref="CE62:CG62"/>
+    <mergeCell ref="BP61:CD61"/>
+    <mergeCell ref="CE61:CG61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="S61:X61"/>
+    <mergeCell ref="Y61:AO61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:X62"/>
+    <mergeCell ref="Y62:AO62"/>
+    <mergeCell ref="AQ62:AX62"/>
+    <mergeCell ref="AY62:BE62"/>
+    <mergeCell ref="BF62:BO62"/>
+    <mergeCell ref="AQ61:AX61"/>
+    <mergeCell ref="AY61:BE61"/>
+    <mergeCell ref="BF61:BO61"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="AY47:BE47"/>
+    <mergeCell ref="BF47:BO47"/>
+    <mergeCell ref="BP47:CD47"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="AY46:BE46"/>
+    <mergeCell ref="B86:P86"/>
+    <mergeCell ref="F88:Q88"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="BP62:CD62"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="CE47:CG47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="BF46:BO46"/>
+    <mergeCell ref="CE46:CG46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="Y46:AO46"/>
+    <mergeCell ref="AQ46:AX46"/>
+    <mergeCell ref="BP46:CD46"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="Y47:AO47"/>
+    <mergeCell ref="AQ47:AX47"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AO10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="AF11:AO11"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:AO15"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:AO29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:AO32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="F30:AO30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:AO31"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:AO27"/>
     <mergeCell ref="B28:E28"/>
@@ -22921,141 +23178,43 @@
     <mergeCell ref="K9:AE9"/>
     <mergeCell ref="AF9:AO9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:AO29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:AO32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="F30:AO30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:AO31"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AO10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="AF11:AO11"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:AO15"/>
-    <mergeCell ref="CE47:CG47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="BF46:BO46"/>
-    <mergeCell ref="CE46:CG46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="Y46:AO46"/>
-    <mergeCell ref="AQ46:AX46"/>
-    <mergeCell ref="BP46:CD46"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="Y47:AO47"/>
-    <mergeCell ref="AQ47:AX47"/>
-    <mergeCell ref="AY47:BE47"/>
-    <mergeCell ref="BF47:BO47"/>
-    <mergeCell ref="BP47:CD47"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="AY46:BE46"/>
-    <mergeCell ref="B86:P86"/>
-    <mergeCell ref="F88:Q88"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="BP62:CD62"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="CE62:CG62"/>
-    <mergeCell ref="BP61:CD61"/>
-    <mergeCell ref="CE61:CG61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="S61:X61"/>
-    <mergeCell ref="Y61:AO61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:X62"/>
-    <mergeCell ref="Y62:AO62"/>
-    <mergeCell ref="AQ62:AX62"/>
-    <mergeCell ref="AY62:BE62"/>
-    <mergeCell ref="BF62:BO62"/>
-    <mergeCell ref="AQ61:AX61"/>
-    <mergeCell ref="AY61:BE61"/>
-    <mergeCell ref="BF61:BO61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="BF60:BO60"/>
-    <mergeCell ref="BP60:CD60"/>
-    <mergeCell ref="CE60:CG60"/>
-    <mergeCell ref="BP59:CD59"/>
-    <mergeCell ref="CE59:CG59"/>
-    <mergeCell ref="AQ53:AX53"/>
-    <mergeCell ref="AY53:BE53"/>
-    <mergeCell ref="BF53:BO53"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:X60"/>
-    <mergeCell ref="Y60:AO60"/>
-    <mergeCell ref="AQ60:AX60"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:X59"/>
-    <mergeCell ref="Y59:AO59"/>
-    <mergeCell ref="AY60:BE60"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AO53"/>
+    <mergeCell ref="Y48:AO48"/>
+    <mergeCell ref="AQ48:AX48"/>
+    <mergeCell ref="AY48:BE48"/>
+    <mergeCell ref="BF48:BO48"/>
+    <mergeCell ref="BP48:CD48"/>
+    <mergeCell ref="CE48:CG48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="Y49:AO49"/>
+    <mergeCell ref="AQ49:AX49"/>
+    <mergeCell ref="AY49:BE49"/>
+    <mergeCell ref="BF49:BO49"/>
+    <mergeCell ref="BP49:CD49"/>
+    <mergeCell ref="CE49:CG49"/>
+    <mergeCell ref="AY54:BE54"/>
+    <mergeCell ref="BF54:BO54"/>
+    <mergeCell ref="BP54:CD54"/>
+    <mergeCell ref="CE54:CG54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y50:AO50"/>
     <mergeCell ref="BP52:CD52"/>
     <mergeCell ref="CE52:CG52"/>
     <mergeCell ref="AY51:BE51"/>
     <mergeCell ref="BF51:BO51"/>
-    <mergeCell ref="AQ59:AX59"/>
-    <mergeCell ref="AY59:BE59"/>
-    <mergeCell ref="BF59:BO59"/>
     <mergeCell ref="BP53:CD53"/>
     <mergeCell ref="CE53:CG53"/>
     <mergeCell ref="BP51:CD51"/>
@@ -23063,28 +23222,85 @@
     <mergeCell ref="S52:X52"/>
     <mergeCell ref="Y52:AO52"/>
     <mergeCell ref="AQ52:AX52"/>
+    <mergeCell ref="AQ50:AX50"/>
+    <mergeCell ref="AY50:BE50"/>
+    <mergeCell ref="BF50:BO50"/>
+    <mergeCell ref="BP50:CD50"/>
+    <mergeCell ref="CE50:CG50"/>
+    <mergeCell ref="AQ51:AX51"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="AY52:BE52"/>
     <mergeCell ref="BF52:BO52"/>
     <mergeCell ref="S51:X51"/>
     <mergeCell ref="Y51:AO51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="AQ55:AX55"/>
+    <mergeCell ref="AY55:BE55"/>
+    <mergeCell ref="BF55:BO55"/>
+    <mergeCell ref="BP55:CD55"/>
+    <mergeCell ref="CE55:CG55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="Y55:AO55"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="Y54:AO54"/>
+    <mergeCell ref="AQ54:AX54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="Y56:AO56"/>
+    <mergeCell ref="AQ58:AX58"/>
+    <mergeCell ref="AY58:BE58"/>
+    <mergeCell ref="BF58:BO58"/>
+    <mergeCell ref="BP58:CD58"/>
+    <mergeCell ref="CE58:CG58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="Y57:AO57"/>
+    <mergeCell ref="AQ56:AX56"/>
+    <mergeCell ref="AY56:BE56"/>
+    <mergeCell ref="BF56:BO56"/>
+    <mergeCell ref="BP56:CD56"/>
+    <mergeCell ref="CE56:CG56"/>
+    <mergeCell ref="AQ57:AX57"/>
+    <mergeCell ref="AY57:BE57"/>
+    <mergeCell ref="BF57:BO57"/>
+    <mergeCell ref="BP57:CD57"/>
+    <mergeCell ref="CE57:CG57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:X58"/>
+    <mergeCell ref="Y58:AO58"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
@@ -23514,14 +23730,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23774,21 +23988,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23813,9 +24026,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>